--- a/Dataset/MMLU_fa/mmlu-college_medicine_fa.xlsx
+++ b/Dataset/MMLU_fa/mmlu-college_medicine_fa.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="832">
-  <si>
-    <t xml:space="preserve">qustion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="833">
+  <si>
+    <t xml:space="preserve">question</t>
   </si>
   <si>
     <t xml:space="preserve">option1</t>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">option4</t>
   </si>
   <si>
+    <t xml:space="preserve">answer</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -82,7 +85,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">با این حال، احتمال بیشتری دارد که برای مردان میانسال سفیدپوست با موها و چشمان تیره بلیط بنویسد</t>
+      <t xml:space="preserve">با این حال، احتمال بیشتری دارد که برای مردان میانسال سفید پوست با موها و چشمان تیره بلیط بنویسد</t>
     </r>
     <r>
       <rPr>
@@ -101,7 +104,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">وقتی افسر با این واقعیت روبرو می شود، به درستی بیان می کند که نمی داند چرا این اتفاق افتاده است و این باید صرفاً یک تصادف باشد</t>
+      <t xml:space="preserve">وقتی افسر با این واقعیت روبرو می شود، صادقانه بیان می کند که نمی داند چرا این اتفاق افتاده است و این باید صرفاً یک تصادف باشد</t>
     </r>
     <r>
       <rPr>
@@ -360,7 +363,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">سنتز مجدد کامل فسفوکراتین پس از ورزش با شدت بسیار بالا معمولاً به صورت زیر انجام می شود</t>
+      <t xml:space="preserve">سنتز مجدد کامل فسفوکراتین پس از تمرین با شدت بسیار بالا معمولاً به صورت زیر انجام می شود</t>
     </r>
     <r>
       <rPr>
@@ -501,7 +504,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک ماشین مسابقه ای که تلاش می کند از مجموعه ای متشکل از </t>
+      <t xml:space="preserve">یک ماشین مسابقه ای که تلاش می کند از مجموعه ای از </t>
     </r>
     <r>
       <rPr>
@@ -539,7 +542,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">مهندسان منصوب به این پروژه تعیین کرده اند که برای پرش از اتوبوس ها، خودرو باید به سرعت </t>
+      <t xml:space="preserve">مهندسان منصوب به این پروژه تعیین کرده اند که برای پرش از اتوبوس ها، ماشین باید به سرعت </t>
     </r>
     <r>
       <rPr>
@@ -703,7 +706,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">اسیدهای چرب به میتوکندری منتقل می شوند و به موارد زیر متصل می شوند</t>
+      <t xml:space="preserve">اسیدهای چرب به میتوکندری منتقل می شوند و به موارد زیر محدود می شوند</t>
     </r>
     <r>
       <rPr>
@@ -754,7 +757,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" نامیده می شود، با قرار گرفتن کوتاه مدت منفعل در معرض گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
+      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" شناخته می شود، با قرار گرفتن در معرض کوتاه مدت غیرفعال در برابر گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
     </r>
     <r>
       <rPr>
@@ -802,16 +805,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کردند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کردند، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار داشتند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
+      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کنند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کنند، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار دارند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
     </r>
     <r>
       <rPr>
@@ -897,7 +900,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون اصلی را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایعی برای تعریق فراهم می‌کند، بلکه مانند آب موجود در رادیاتور خودرو عمل می‌کند، بدن را خنک می‌کند تا از افزایش سریع دمای مرکزی بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می‌کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
+      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون هسته را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایع برای تعریق را فراهم می کند، بلکه مانند آب رادیاتور خودرو عمل می کند، بدن را خنک می کند تا از افزایش سریع دمای هسته بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
     </r>
     <r>
       <rPr>
@@ -937,7 +940,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">بیماران جراحی قلب که نمی توانند روی تردمیل بدوند ممکن است از سونا بهره مند شوند</t>
+      <t xml:space="preserve">بیماران جراحی قلب که نمی توانند روی تردمیل بدود ممکن است از سونا بهره مند شوند</t>
     </r>
     <r>
       <rPr>
@@ -1282,7 +1285,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">فرآیند ترجمه مستلزم حضور موارد زیر است</t>
+      <t xml:space="preserve">فرآیند ترجمه مستلزم وجود موارد زیر است</t>
     </r>
     <r>
       <rPr>
@@ -1842,7 +1845,7 @@
     <t xml:space="preserve">اتانول کربن دوم را در هر زنجیره ای ترجیح می دهد</t>
   </si>
   <si>
-    <t xml:space="preserve">عطرسازی چرخه ای</t>
+    <t xml:space="preserve">معطر سازی چرخه ای</t>
   </si>
   <si>
     <r>
@@ -2218,7 +2221,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">وضعیت احتمالی سیستم دوپامین این بیمار چگونه است؟</t>
+      <t xml:space="preserve">وضعیت احتمالی سیستم دوپامین این بیمار چیست؟</t>
     </r>
   </si>
   <si>
@@ -2635,7 +2638,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک آنزیم جدید در یک موش تراریخته یافت شد که با استفاده از دو واکنش دهنده در سنتز یک محصول ناشناخته شرکت می کند</t>
+      <t xml:space="preserve">آنزیم جدیدی در یک موش تراریخته یافت شد که با استفاده از دو واکنش دهنده در سنتز یک محصول ناشناخته شرکت می کند</t>
     </r>
     <r>
       <rPr>
@@ -3210,7 +3213,7 @@
     <t xml:space="preserve">داخل گلبول های قرمز خون</t>
   </si>
   <si>
-    <t xml:space="preserve">به عنوان لیپوپروتئین</t>
+    <t xml:space="preserve">به عنوان لیپوپروتئین ها</t>
   </si>
   <si>
     <t xml:space="preserve">همراه با گلوکز</t>
@@ -3238,7 +3241,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">همه موارد بالا</t>
+      <t xml:space="preserve">همه موارد فوق</t>
     </r>
     <r>
       <rPr>
@@ -3301,7 +3304,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در غشای داخلی میتوکندری تعبیه شده است</t>
+      <t xml:space="preserve">موارد زیر در غشای داخلی میتوکندری تعبیه شده است</t>
     </r>
     <r>
       <rPr>
@@ -3648,7 +3651,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کیلومتر در ساعت حرکت می‌کرد، توسط دوربینی روی سکوی </t>
+      <t xml:space="preserve">کیلومتر در ساعت حرکت می‌کرده، توسط دوربینی روی سکوی </t>
     </r>
     <r>
       <rPr>
@@ -3686,7 +3689,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کیلومتر در ساعت در همان جهت حرکت می‌کرد، ثبت شد</t>
+      <t xml:space="preserve">کیلومتر در ساعت در همان جهت حرکت می‌کند، ضبط شده است</t>
     </r>
     <r>
       <rPr>
@@ -3916,7 +3919,17 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">گناه؟</t>
+      <t xml:space="preserve">گناه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
     </r>
   </si>
   <si>
@@ -4063,7 +4076,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک نقص شایع قلبی در انسان، نقص دیواره بین بطنی است که در آن سوراخی در سپتوم بین بطن راست و چپ وجود دارد</t>
+      <t xml:space="preserve">یک نقص شایع قلبی در انسان نقص دیواره بین بطنی است که در آن سوراخی در سپتوم بین بطن راست و چپ وجود دارد</t>
     </r>
     <r>
       <rPr>
@@ -4432,7 +4445,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک مطالعه طبقه‌بندی که دوره‌های طولانی رشد راکد و به دنبال آن یک انفجار کوتاه از تکامل عظیم را نشان می‌دهد</t>
+      <t xml:space="preserve">یک مطالعه طبقه‌بندی که دوره‌های طولانی رشد راکد را نشان می‌دهد که پس از آن انفجار کوتاهی از تکامل عظیم را نشان می‌دهد</t>
     </r>
     <r>
       <rPr>
@@ -4495,7 +4508,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک منبع صدایی را از یک محیط با سرعت، شدت، فرکانس و طول موج معین ساطع می کند</t>
+      <t xml:space="preserve">یک منبع صدایی را از یک رسانه با سرعت، شدت، فرکانس و طول موج معین ساطع می کند</t>
     </r>
     <r>
       <rPr>
@@ -4561,7 +4574,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">تفاوت بین بار بیرونی و درونی سلول</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تفاوت بین بار در بیرون و داخل یک سلول</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4725,7 +4756,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">به طور قابل توجهی اتصال اکسیژن در ریه ها را کاهش داد</t>
+      <t xml:space="preserve">کاهش قابل توجهی اتصال اکسیژن در ریه ها</t>
     </r>
     <r>
       <rPr>
@@ -4830,7 +4861,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">اکنون زنان می توانند سریعتر از مردان بدوند</t>
+      <t xml:space="preserve">زنان اکنون می توانند سریعتر از مردان بدوند</t>
     </r>
     <r>
       <rPr>
@@ -4942,7 +4973,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تعامل تروپومیوزین</t>
+      <t xml:space="preserve">برهمکنش تروپومیوزین</t>
     </r>
     <r>
       <rPr>
@@ -5142,7 +5173,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">عضله به زیر </t>
+      <t xml:space="preserve">عضلانی به زیر </t>
     </r>
     <r>
       <rPr>
@@ -5262,7 +5293,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">معلمی یک سیستم پاداش برای دانش آموزان دبستان خود تنظیم می کند</t>
+      <t xml:space="preserve">یک معلم یک سیستم پاداش برای دانش آموزان دبستان خود تنظیم می کند</t>
     </r>
     <r>
       <rPr>
@@ -5368,7 +5399,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">برنامه‌های نسبت متغیر قوی‌ترین واکنش‌ها و رفتاری را ایجاد می‌کنند که کمترین آسیب را در برابر انقراض دارند</t>
+      <t xml:space="preserve">برنامه‌های نسبت متغیر قوی‌ترین واکنش‌ها و رفتارهایی را ایجاد می‌کنند که کمترین آسیب را در برابر انقراض دارند</t>
     </r>
     <r>
       <rPr>
@@ -5389,7 +5420,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">دانش‌آموزان انگیزه درونی بیشتری برای انجام آزمون‌ها داشتند تا اینکه به موقع حاضر شوند</t>
+      <t xml:space="preserve">دانش‌آموزان انگیزه درونی بیشتری برای انجام خوب آزمون‌ها داشتند تا اینکه به موقع حاضر شوند</t>
     </r>
     <r>
       <rPr>
@@ -5410,7 +5441,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تغییر رفتار دانش‌آموزان در پاسخ به یک برنامه با نسبت ثابت قوی‌تر از یک برنامه تقویت مداوم بود</t>
+      <t xml:space="preserve">تغییر رفتار دانش آموزان در پاسخ به یک برنامه با نسبت ثابت قوی تر از یک برنامه تقویت مداوم بود</t>
     </r>
     <r>
       <rPr>
@@ -5730,7 +5761,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">این هورمون توسط چه بافتی ترشح می شود و چه وظیفه ای دارد؟</t>
+      <t xml:space="preserve">این هورمون توسط چه بافتی ترشح می شود و وظیفه آن چیست؟</t>
     </r>
   </si>
   <si>
@@ -5791,7 +5822,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">به استادی منصوب می شود، و </t>
+      <t xml:space="preserve">به سمت استادی منصوب می شود، و </t>
     </r>
     <r>
       <rPr>
@@ -5810,7 +5841,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در سراسر کشور برای موقعیت استادی جدید در مدرسه ای دیگر نقل مکان می کند</t>
+      <t xml:space="preserve">در سراسر کشور برای یک موقعیت استادی جدید در مدرسه دیگری نقل مکان می کند</t>
     </r>
     <r>
       <rPr>
@@ -5948,7 +5979,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">از پایه های </t>
+      <t xml:space="preserve">از بازهای </t>
     </r>
     <r>
       <rPr>
@@ -5967,7 +5998,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">باشد، نسبت </t>
+      <t xml:space="preserve">بود، نسبت </t>
     </r>
     <r>
       <rPr>
@@ -6066,7 +6097,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در طی یک چرخش کامل از چرخه اسید تری کربوکسیلیک </t>
+      <t xml:space="preserve">در یک چرخه کامل چرخه اسید تری کربوکسیلیک </t>
     </r>
     <r>
       <rPr>
@@ -6328,7 +6359,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">گریه و بازگشت نزد مادر در بازگشت</t>
+      <t xml:space="preserve">گریه و بازگشت نزد مادر پس از بازگشت</t>
     </r>
     <r>
       <rPr>
@@ -6463,7 +6494,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک عارضه جدی است که در نوزادانی که نارس به دنیا می‌آیند و توانایی ضعیفی برای تسهیل انتشار اکسیژن در غشاهای آلوئولی خود دارند دیده می‌شود</t>
+      <t xml:space="preserve">یک عارضه جدی است که در نوزادانی که نارس به دنیا می‌آیند و توانایی به خطر انداخته‌ای برای تسهیل انتشار اکسیژن در غشای آلوئولی خود دارند دیده می‌شود</t>
     </r>
     <r>
       <rPr>
@@ -6534,7 +6565,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">84 گرم اتان و اکسیژن نامحدود فراهم شود، چند گرم دی اکسید کربن حاصل می شود (</t>
+      <t xml:space="preserve">84 گرم اتان و اکسیژن نامحدود ارائه شود، چند گرم دی اکسید کربن حاصل می شود (</t>
     </r>
     <r>
       <rPr>
@@ -6671,7 +6702,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" نامیده می شود، با قرار گرفتن کوتاه مدت منفعل در معرض گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
+      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" شناخته می شود، با قرار گرفتن در معرض کوتاه مدت غیرفعال در برابر گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
     </r>
     <r>
       <rPr>
@@ -6719,16 +6750,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کردند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کردند، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار داشتند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
+      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کنند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کنند، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار دارند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
     </r>
     <r>
       <rPr>
@@ -6814,7 +6845,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون اصلی را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایعی برای تعریق فراهم می‌کند، بلکه مانند آب موجود در رادیاتور خودرو عمل می‌کند، بدن را خنک می‌کند تا از افزایش سریع دمای مرکزی بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می‌کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
+      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون هسته را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایع برای تعریق را فراهم می کند، بلکه مانند آب رادیاتور خودرو عمل می کند، بدن را خنک می کند تا از افزایش سریع دمای هسته بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
     </r>
     <r>
       <rPr>
@@ -7560,7 +7591,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در پاسخ به دوره آسیب روانی شدید، بیمار شروع به تجربه احساس جدایی می کند</t>
+      <t xml:space="preserve">در پاسخ به دوره آسیب روانی شدید، بیمار شروع به تجربه احساس جداشدگی می کند</t>
     </r>
     <r>
       <rPr>
@@ -7617,7 +7648,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">من فقط داشتم خودم را بدون هیچ کنترلی انجام می دهم</t>
+      <t xml:space="preserve">من فقط تماشا می کردم که بدون هیچ کنترلی این کار را انجام می دهم</t>
     </r>
     <r>
       <rPr>
@@ -7688,7 +7719,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تمرینات استقامتی ظرفیت عضله را افزایش می دهد</t>
+      <t xml:space="preserve">تمرینات استقامتی ظرفیت عضله را در موارد زیر افزایش می دهد</t>
     </r>
     <r>
       <rPr>
@@ -7784,7 +7815,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">پروتئین هایی که توسط مواد ژنتیکی دیکته می شوند</t>
+      <t xml:space="preserve">پروتئین هایی که توسط مواد ژنتیکی دیکته می شوند تشکیل می شوند</t>
     </r>
     <r>
       <rPr>
@@ -7933,7 +7964,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ویژگی اصلی در دوی ماراتن موفق این است</t>
+      <t xml:space="preserve">ویژگی کلیدی در دوی ماراتن موفق این است</t>
     </r>
     <r>
       <rPr>
@@ -8220,7 +8251,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">، نسبت پورین ها به پیریمیدین ها برابر است با</t>
+      <t xml:space="preserve">، نسبت پورین به پیریمیدین برابر است با</t>
     </r>
     <r>
       <rPr>
@@ -8308,7 +8339,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" نامیده می شود، با قرار گرفتن کوتاه مدت منفعل در معرض گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
+      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" شناخته می شود، با قرار گرفتن در معرض کوتاه مدت غیرفعال در برابر گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
     </r>
     <r>
       <rPr>
@@ -8356,16 +8387,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کردند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کردند، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار داشتند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
+      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کنند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کنند، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار دارند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
     </r>
     <r>
       <rPr>
@@ -8451,7 +8482,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون اصلی را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایعی برای تعریق فراهم می‌کند، بلکه مانند آب موجود در رادیاتور خودرو عمل می‌کند، بدن را خنک می‌کند تا از افزایش سریع دمای مرکزی بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می‌کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
+      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون هسته را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایع برای تعریق را فراهم می کند، بلکه مانند آب رادیاتور خودرو عمل می کند، بدن را خنک می کند تا از افزایش سریع دمای هسته بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
     </r>
     <r>
       <rPr>
@@ -8558,7 +8589,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کارن یک دانشجوی کالج است که با درمانگر خود روی ایجاد حس قوی‌تری از عزت نفس و خودکارآمدی کار می‌کند</t>
+      <t xml:space="preserve">کارن یک دانشجوی کالج است که روی ایجاد حس قوی‌تر از عزت نفس و خودکارآمدی با درمانگر خود کار می‌کند</t>
     </r>
     <r>
       <rPr>
@@ -8596,7 +8627,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ماه درمان متوجه تغییر بزرگی در توانایی خود برای رسیدگی به موقعیت ها شده است</t>
+      <t xml:space="preserve">ماه درمان متوجه تغییر بزرگی در توانایی خود برای مدیریت موقعیت ها شده است</t>
     </r>
     <r>
       <rPr>
@@ -8647,7 +8678,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کارهایی را که او می خواهد بهبود بخشد، روزانه تمرین کند</t>
+      <t xml:space="preserve">کارهایی را که می‌خواهد بهبود بخشد، روزانه تمرین کند</t>
     </r>
     <r>
       <rPr>
@@ -8730,7 +8761,7 @@
     <t xml:space="preserve">هایپرونتیلاسیون</t>
   </si>
   <si>
-    <t xml:space="preserve">بیش از حد اکسیژن</t>
+    <t xml:space="preserve">اکسیژن اضافی</t>
   </si>
   <si>
     <t xml:space="preserve">کمبود اکسیژن</t>
@@ -8886,7 +8917,7 @@
     <t xml:space="preserve">گلوکونئوژنز</t>
   </si>
   <si>
-    <t xml:space="preserve">پس از چه دوره زمانی، تمرینات حداکثری پویا عمدتاً هوازی می شود؟</t>
+    <t xml:space="preserve">پس از چه مدت زمانی تمرینات حداکثری پویا عمدتاً هوازی می شود؟</t>
   </si>
   <si>
     <r>
@@ -9039,7 +9070,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">دارد، که باعث می شود جامد تحت شرایط فشار بالا مایع تشکیل دهد</t>
+      <t xml:space="preserve">دارد، که باعث می شود جامد در شرایط فشار بالا مایع تشکیل دهد</t>
     </r>
     <r>
       <rPr>
@@ -9315,7 +9346,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">مولار اضافه می شود کدام یک از موارد زیر رخ می دهد؟</t>
+      <t xml:space="preserve">مولار اضافه شود، کدام یک از موارد زیر رخ می دهد؟</t>
     </r>
   </si>
   <si>
@@ -9587,7 +9618,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">داروهای استروئیدی که با تقلید از اثرات هورمون های استروئیدی طبیعی روی گیرنده های آندروژن عمل می کنند</t>
+      <t xml:space="preserve">داروهای استروئیدی که بر روی گیرنده های آندروژن اثر می کنند و اثرات هورمون های استروئیدی طبیعی را تقلید می کنند</t>
     </r>
     <r>
       <rPr>
@@ -9881,7 +9912,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک دانشمند با استفاده از الکترودها، گروهی از نورون ها را در هیپوتالاموس تحریک می کند و تغییرات پتانسیل غشایی آنها را ثبت می کند</t>
+      <t xml:space="preserve">دانشمندی با استفاده از الکترودها، گروهی از نورون ها را در هیپوتالاموس تحریک کرده و تغییرات پتانسیل غشایی آنها را ثبت می کند</t>
     </r>
     <r>
       <rPr>
@@ -9900,7 +9931,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">هنگامی که برای اولین بار آنها را تحریک می کند، افزایش شدید پتانسیل غشاء را مشاهده می کند، تفاوت </t>
+      <t xml:space="preserve">هنگامی که برای اولین بار آنها را تحریک می کند، افزایش شدید پتانسیل غشا را مشاهده می کند، تفاوت </t>
     </r>
     <r>
       <rPr>
@@ -9983,7 +10014,7 @@
     <t xml:space="preserve">دپلاریزاسیون</t>
   </si>
   <si>
-    <t xml:space="preserve">رپولاریزاسیون</t>
+    <t xml:space="preserve">رپلاریزاسیون</t>
   </si>
   <si>
     <t xml:space="preserve">هایپرپولاریزاسیون</t>
@@ -10394,7 +10425,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تعداد حقایقی که آزمودنی ها می توانند به خاطر بیاورند</t>
+      <t xml:space="preserve">تعداد حقایقی که سوژه ها می توانند به خاطر بیاورند</t>
     </r>
     <r>
       <rPr>
@@ -10517,7 +10548,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">تصور می شود کدام یک از موارد زیر در ایجاد خستگی عضلانی محیطی در طول فعالیت های سرعتی متعدد دخیل است؟</t>
+    <t xml:space="preserve">تصور می شود کدام یک از موارد زیر در ایجاد خستگی عضلانی محیطی در حین فعالیت های سرعتی متعدد دخیل است؟</t>
   </si>
   <si>
     <t xml:space="preserve">تجمع فسفات معدنی</t>
@@ -11037,7 +11068,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">دقیقه به وقت ملاقات خود تاخیر داشته است و اکنون تنها باز شدن با متخصص بهداشت بوده است</t>
+      <t xml:space="preserve">دقیقه به وقت ملاقات خود تاخیر داشته است و تنها باز شدن در حال حاضر با متخصص بهداشت بوده است</t>
     </r>
     <r>
       <rPr>
@@ -11056,7 +11087,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">بیمار متوجه می شود که ارزش وقت او از هر یک از افراد حاضر در مطب بیشتر است</t>
+      <t xml:space="preserve">بیمار متوجه می شود که ارزش زمان او از هر یک از افراد حاضر در مطب بیشتر است</t>
     </r>
     <r>
       <rPr>
@@ -11166,7 +11197,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک بازیکن بیسبال برای تقویت حافظه عضلانی، از یک سه راهی توپ های بیسبال را می زند</t>
+      <t xml:space="preserve">یک بازیکن بیسبال به منظور تقویت حافظه عضلانی، از یک سه راهی توپ های بیسبال را می زند</t>
     </r>
     <r>
       <rPr>
@@ -11232,7 +11263,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">مرد جوانی که با یک درمانگر کار می کند تا بازدهی بیشتری داشته باشد، بسیاری از خواسته های خود را در دوران رشد بیان می کند و این که چگونه احساس می کند که بر او تأثیر گذاشته است</t>
+      <t xml:space="preserve">مرد جوانی که با یک درمانگر کار می کند تا بازدهی بیشتر کند، بسیاری از خواسته های خود را در دوران رشد بیان می کند و احساس می کند که این خواسته ها بر او تأثیر گذاشته است</t>
     </r>
     <r>
       <rPr>
@@ -11305,7 +11336,7 @@
     <t xml:space="preserve">تناسلی</t>
   </si>
   <si>
-    <t xml:space="preserve">چه نوع پیوندهای کووالانسی اسیدهای آمینه موجود در یک پروتئین را به هم مرتبط می کند؟</t>
+    <t xml:space="preserve">چه نوع پیوندهای کووالانسی اسیدهای آمینه موجود در یک پروتئین را به هم متصل می کنند؟</t>
   </si>
   <si>
     <t xml:space="preserve">پیوندهای پپتیدی</t>
@@ -11440,7 +11471,7 @@
     <t xml:space="preserve">حضور گروه دیگری از مردم یک بلوک بالاتر از خیابان</t>
   </si>
   <si>
-    <t xml:space="preserve">فردی که به کمک نیاز دارد به نظر می رسد که قومیت یکسانی داشته باشد تا یک قوم متفاوت</t>
+    <t xml:space="preserve">فردی که نیاز به کمک دارد به نظر می رسد که قومیت یکسانی داشته باشد تا فردی متفاوت</t>
   </si>
   <si>
     <t xml:space="preserve">حضور یک نفر دیگر که از قبل به دختر نزدیک می شود</t>
@@ -11453,7 +11484,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" نامیده می شود، با قرار گرفتن کوتاه مدت منفعل در معرض گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
+      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" شناخته می شود، با قرار گرفتن در معرض کوتاه مدت غیرفعال در برابر گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
     </r>
     <r>
       <rPr>
@@ -11501,16 +11532,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کردند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کردند، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار داشتند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
+      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کنند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کنند، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار دارند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
     </r>
     <r>
       <rPr>
@@ -11596,7 +11627,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون اصلی را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایعی برای تعریق فراهم می‌کند، بلکه مانند آب موجود در رادیاتور خودرو عمل می‌کند، بدن را خنک می‌کند تا از افزایش سریع دمای مرکزی بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می‌کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
+      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون هسته را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایع برای تعریق را فراهم می کند، بلکه مانند آب رادیاتور خودرو عمل می کند، بدن را خنک می کند تا از افزایش سریع دمای هسته بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
     </r>
     <r>
       <rPr>
@@ -11625,7 +11656,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کدام یک از موارد زیر پاراگراف احتمالی است که پس از این گزیده در مقاله آمده است؟</t>
+      <t xml:space="preserve">کدام یک از موارد زیر پاراگراف محتمل پس از این گزیده مقاله است؟</t>
     </r>
   </si>
   <si>
@@ -11657,7 +11688,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">پاراگراف در مورد افزایش حملات قلبی در جمعیت اسکیموها</t>
+      <t xml:space="preserve">پاراگراف افزایش حملات قلبی در جمعیت اسکیموها</t>
     </r>
     <r>
       <rPr>
@@ -11972,7 +12003,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تفاوت مهار غیررقابتی با مهار غیررقابتی این است که یک بازدارنده غیررقابتی به یک محل آلوستریک روی آنزیم متصل می شود و از کاتالیز کردن واکنش جلوگیری می کند، در حالی که مهارکننده های غیررقابتی به کمپلکس سوبسترای آنزیم متصل می شوند و از کاتالیز جلوگیری می کنند</t>
+      <t xml:space="preserve">تفاوت مهار غیررقابتی با مهار غیررقابتی این است که یک بازدارنده غیررقابتی به یک محل آلوستریک روی آنزیم متصل می‌شود و از کاتالیز کردن واکنش جلوگیری می‌کند، در حالی که مهارکننده‌های غیررقابتی به کمپلکس سوبسترای آنزیم متصل می‌شوند و از کاتالیزور جلوگیری می‌کنند</t>
     </r>
     <r>
       <rPr>
@@ -12358,7 +12389,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">محرک برای شروع فرآیند انقباض در عضله اسکلتی</t>
+      <t xml:space="preserve">محرک شروع فرآیند انقباض در عضله اسکلتی</t>
     </r>
     <r>
       <rPr>
@@ -13426,7 +13457,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">با فرض اینکه سیستم گردش خون در انسان از اصل دینامیک مایعات برنولی پیروی می کند، کدام یک از این گزاره ها فشار خون را در مویرگ گردن با یک مویرگ با سطح مقطع برابر در زانوی راست مقایسه می کند؟</t>
+    <t xml:space="preserve">با فرض اینکه سیستم گردش خون در انسان از اصل دینامیک مایعات برنولی پیروی می کند، کدام یک از گزاره ها فشار خون را در مویرگ گردن با مویرگ با سطح مقطع برابر در زانوی راست مقایسه می کند؟</t>
   </si>
   <si>
     <t xml:space="preserve">فشار گردن به دلیل افزایش فشار سر بیشتر از فشار زانو است</t>
@@ -13439,7 +13470,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">فشار در گردن برابر با فشار زانو است زیرا فشار دینامیکی برابر مطابق با معادله تداوم دارد</t>
+      <t xml:space="preserve">فشار در گردن برابر با فشار زانو است زیرا فشار دینامیکی برابر مطابق با معادله پیوستگی است</t>
     </r>
     <r>
       <rPr>
@@ -13506,6 +13537,46 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">و ظرفیت بافر مایع خارج سلولی که امکان خروج سریعتر یونهای هیدروژن از ماهیچه را فراهم می کند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">کاهش </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">و ظرفیت بافر مایع خارج سلولی که امکان خروج سریعتر یون هیدروژن از ماهیچه را فراهم می کند</t>
     </r>
     <r>
@@ -13527,7 +13598,287 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کاهش </t>
+      <t xml:space="preserve">افزایش </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">و ظرفیت بافر مایع خارج سلولی که امکان ورود سریع یون هیدروژن به ماهیچه را فراهم می کند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">افزایش </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">عضله قبل از تمرین</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">فردی برای ارزیابی اولیه و ایجاد مراقبت به کلینیک مراجعه می کند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">بیمار متولد </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">XY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">است، اما به عنوان یک زن شناسایی می شود</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ضمایر ترجیحی او </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">She/Her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">هستند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">علاوه بر این، او فقط با زنان فعال است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">جنسیت و جهت گیری این فرد چیست؟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">سیس</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">جنسیت، دگرجنسگرا</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ترنسجندر، دگرجنسگرا</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">سیس</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">جنسیت، همجنسگرا</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ترنسجندر، همجنس گرا</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">کدام یک از موارد زیر می تواند به عنوان یک بافر درون سلولی برای محدود کردن تغییرات </t>
     </r>
     <r>
       <rPr>
@@ -13546,7 +13897,249 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">و ظرفیت بافر مایع خارج سلولی که امکان خروج سریعتر یونهای هیدروژن از ماهیچه را فراهم می کند</t>
+      <t xml:space="preserve">در زمانی که سرعت گلیکولیز بالا است عمل کند؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارنوزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آمیلاز</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تیمی از مهندسان در حال ساخت چراغ‌های سیگنال برای هواپیماها که می‌توانند از آن‌ها برای هدایت آنها به باند فرودگاه استفاده کنند، تلاش می‌کنند تا روشنایی لازم را برای خلبان تعیین کنند تا بتواند برج را در فاصله ۱ مایلی تشخیص دهد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">آنها نور را روی روشنایی آزمایشی تنظیم کردند و با یک خلبان ورودی ارتباط برقرار کردند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">وقتی خلبان </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">مایلی از برج فاصله دارد، می گوید که نمی تواند نور را ببیند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">از نظر تئوری تشخیص سیگنال، این چه نامی دارد؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ضربه بزنید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هشدار کاذب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رد صحیح</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">شهر نیویورک خانه بیش از </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">میلیون نفر از طیف های مختلف پیشینه است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">اگرچه خود شهر دارای ویژگی‌هایی است، اما چندین منطقه کوچک‌تر نیز وجود دارد، معمولاً جماعتی از افراد یک ملیت، که به آداب و رسوم کشور قبلی خود پایبند هستند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">به عنوان مثال، در ایتالیای کوچک، یک شهر کوچک در این شهر، هنوز هم مرسوم است که مردم را با بوسه گونه ها احوالپرسی کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">این نمونه ای از چه نوع پدیده ای است؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">خرده فرهنگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ضد فرهنگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میکروفرهنگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عقب ماندگی فرهنگی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">گروه های پروتز عبارتند از</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">مورد نیاز تمام آنزیم های سلول</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">از طریق پیوندهای هیدروژنی به آنزیم ها متصل می شود</t>
     </r>
     <r>
       <rPr>
@@ -13567,26 +14160,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">افزایش </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">و ظرفیت بافر مایع خارج سلولی که امکان ورود سریع یون هیدروژن به عضله را فراهم می کند</t>
+      <t xml:space="preserve">مکان هایی روی مولکول آنزیم که امکان اصلاح آلوستریک فعالیت آنزیم را فراهم می کند</t>
     </r>
     <r>
       <rPr>
@@ -13607,484 +14181,28 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">افزایش </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">عضله قبل از تمرین</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فردی برای ارزیابی اولیه و ایجاد مراقبت به کلینیک مراجعه می کند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">بیمار متولد </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">است، اما به عنوان یک زن شناسایی می شود</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ضمایر ترجیحی او </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">She/Her </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">هستند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">علاوه بر این، او فقط با زنان فعال است</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">جنسیت و جهت گیری این فرد چیست؟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">سیس</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">جنسیت، دگرجنس گرا</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ترنسجندر، دگرجنسگرا</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">سیس</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">جنسیت، همجنسگرا</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ترنسجندر، همجنسگرا</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">کدام یک از موارد زیر می تواند به عنوان یک بافر درون سلولی برای محدود کردن تغییرات </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">در زمانی که سرعت گلیکولیز بالا است عمل کند؟</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">گلوکز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کارنوزین</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آمیلاز</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">تیمی از مهندسان در حال ساخت چراغ‌های سیگنال برای هواپیماها که می‌توانند از آن‌ها برای هدایت آنها به باند فرودگاه استفاده کنند، تلاش می‌کنند تا روشنایی لازم را برای خلبان تعیین کنند تا بتواند برج را در فاصله ۱ مایلی تشخیص دهد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">آنها نور را روی روشنایی آزمایشی تنظیم کردند و با یک خلبان ورودی ارتباط برقرار کردند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">وقتی خلبان </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">مایلی از برج فاصله دارد، می گوید که نمی تواند نور را ببیند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">از نظر تئوری تشخیص سیگنال، این چه نامی دارد؟</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ضربه بزنید</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خانم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هشدار کاذب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رد صحیح</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">شهر نیویورک خانه بیش از </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">میلیون نفر از طیف های مختلف پیشینه است</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">اگرچه خود شهر دارای ویژگی‌هایی است، اما چندین منطقه کوچک‌تر نیز وجود دارد، معمولاً جماعتی از افراد یک ملیت، که به آداب و رسوم کشور قبلی خود پایبند هستند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">به عنوان مثال، در ایتالیای کوچک، شهر کوچکی در این شهر، هنوز هم مرسوم است که مردم را با بوسه های گونه ها احوالپرسی کنند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">این نمونه ای از چه نوع پدیده ای است؟</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">خرده فرهنگ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ضد فرهنگ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">میکروفرهنگ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عقب ماندگی فرهنگی</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">گروه های پروتز عبارتند از</t>
+      <t xml:space="preserve">محکم به آنزیم ها متصل است و برای فعالیت آنها مورد نیاز است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">کدون ها از موارد زیر تشکیل شده اند</t>
     </r>
     <r>
       <rPr>
@@ -14098,17 +14216,158 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">مورد نیاز تمام آنزیم های سلول</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">از طریق پیوندهای هیدروژنی به آنزیم ها متصل می شود</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">توالی های سه گانه از بازهای نوکلئوتیدی در </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mRNA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">یا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DNA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">توالی های چهارگانه از بازهای نوکلئوتیدی در </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mRNA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">یا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DNA.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">توالی سه گانه اسیدهای آمینه در زنجیره های پلی پپتیدی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">توالی سه گانه قندهای دئوکسی ریبوز در </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DNA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">در بازی هایی مانند فوتبال غلظت لاکتات خون</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">به ندرت بیش از </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">میلی متر افزایش می یابد</t>
     </r>
     <r>
       <rPr>
@@ -14129,7 +14388,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">مکان هایی روی مولکول آنزیم که امکان اصلاح آلوستریک فعالیت آنزیم را فراهم می کند</t>
+      <t xml:space="preserve">معمولا در پایان بازی کمتر از پایان نیمه اول است</t>
     </r>
     <r>
       <rPr>
@@ -14150,7 +14409,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">محکم به آنزیم ها متصل است و برای فعالیت آنها مورد نیاز است</t>
+      <t xml:space="preserve">معمولاً در پایان بازی بالاتر از پایان نیمه اول است</t>
     </r>
     <r>
       <rPr>
@@ -14171,7 +14430,28 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کدون ها از موارد زیر تشکیل شده اند</t>
+      <t xml:space="preserve">در طول بازی افزایش می یابد زیرا بازیکنان خسته تر می شوند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">همه موارد زیر در مورد عملکرد نورون ها صادق است به جز</t>
     </r>
     <r>
       <rPr>
@@ -14192,132 +14472,94 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">توالی های سه گانه از بازهای نوکلئوتیدی در </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mRNA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">یا </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DNA.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">توالی های چهارگانه از بازهای نوکلئوتیدی در </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mRNA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">یا </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DNA.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">توالی سه گانه اسیدهای آمینه در زنجیره های پلی پپتیدی</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">توالی سه گانه قندهای دئوکسی ریبوز در </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DNA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">در بازی هایی مانند فوتبال غلظت لاکتات خون</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">به ندرت بیش از </t>
+      <t xml:space="preserve">هایپرپلاریزاسیون در انتهای یک پتانسیل عمل، مکانیزمی است که نورون ها از طریق آن سرعتی را که ممکن است پتانسیل های عمل در آن شلیک می شوند، محدود کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">جریان سدیم به داخل نورون غشاء را در مرحله اول پتانسیل عمل دپولاریزه می کند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">نورون انتقال دهنده، انتقال دهنده های عصبی را به داخل شکاف سیناپسی از دندریت های خود ترشح می کند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">یک پتانسیل عمل زمانی آغاز می شود که تپه آکسون به پتانسیل آستانه برسد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر صحیح است؟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">افزایش مصرف پروتئین بیش از </t>
     </r>
     <r>
       <rPr>
@@ -14336,7 +14578,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">میلی متر افزایش می یابد</t>
+      <t xml:space="preserve">گرم به ازای هر کیلوگرم توده بدن در روز باعث تحریک رشد عضلات و افزایش قدرت می شود</t>
     </r>
     <r>
       <rPr>
@@ -14357,7 +14599,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">معمولاً در پایان بازی کمتر از پایان نیمه اول است</t>
+      <t xml:space="preserve">مکمل های کراتین می توانند قدرت و قدرت عضلانی را افزایش دهند</t>
     </r>
     <r>
       <rPr>
@@ -14378,7 +14620,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">معمولاً در پایان بازی بالاتر از پایان نیمه اول است</t>
+      <t xml:space="preserve">مکمل های اسید آمینه می توانند قدرت و قدرت عضلانی را افزایش دهند</t>
     </r>
     <r>
       <rPr>
@@ -14399,7 +14641,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در طول بازی افزایش می یابد زیرا بازیکنان خسته تر می شوند</t>
+      <t xml:space="preserve">آسیب عضلانی با کوتاه شدن انقباضات ایجاد می شود</t>
     </r>
     <r>
       <rPr>
@@ -14413,35 +14655,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">همه موارد زیر در مورد عملکرد نورون ها صادق است به جز</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">هایپرپلاریزاسیون در انتهای یک پتانسیل عمل، مکانیزمی است که نورون ها از طریق آن، سرعتی را که پتانسیل های عمل ممکن است شلیک می کنند، محدود کنند</t>
+    <t xml:space="preserve">کدام یک از عبارات زیر نادرست است؟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">آمونیاک در تمرینات مکرر با شدت بالا تولید می شود</t>
     </r>
     <r>
       <rPr>
@@ -14462,199 +14686,6 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">جریان سدیم به داخل نورون غشاء را در مرحله اول پتانسیل عمل دپولاریزه می کند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">نورون انتقال دهنده، انتقال دهنده های عصبی را به داخل شکاف سیناپسی از دندریت های خود ترشح می کند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">یک پتانسیل عمل زمانی آغاز می شود که تپه آکسون به پتانسیل آستانه برسد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام یک از موارد زیر صحیح است؟</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">افزایش مصرف پروتئین بیش از </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">گرم به ازای هر کیلوگرم توده بدن در روز باعث تحریک رشد عضلات و افزایش قدرت می شود</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">مکمل های کراتین می توانند قدرت و قدرت عضلانی را افزایش دهند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">مکمل های اسید آمینه می توانند قدرت و قدرت عضلانی را افزایش دهند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">آسیب عضلانی با کوتاه شدن انقباضات ایجاد می شود</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام یک از عبارات زیر نادرست است؟</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">آمونیاک در تمرینات مکرر با شدت بالا تولید می شود</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">تجمع لاکتات عضلانی تا زمانی که حداقل </t>
     </r>
     <r>
@@ -14674,7 +14705,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ثانیه انقباضات متناوب عضلانی رخ ندهد شروع نمی شود</t>
+      <t xml:space="preserve">ثانیه انقباضات متناوب عضلانی رخ ندهد، شروع نمی شود</t>
     </r>
     <r>
       <rPr>
@@ -15251,7 +15282,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">کشتی‌گیری که سعی می‌کند برای یک مسابقه در ماه دسامبر وزن کم کند، خود را متعهد می‌کند که </t>
+      <t xml:space="preserve">کشتی‌گیری که تلاش می‌کند برای یک مسابقه در ماه دسامبر وزن کم کند، خود را متعهد می‌کند که </t>
     </r>
     <r>
       <rPr>
@@ -15340,7 +15371,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">هر شنبه برای رسیدن به اهداف کالری خود با یک وعده غذایی خوشمزه به خود پاداش دهید</t>
+      <t xml:space="preserve">برای رسیدن به اهداف کالری خود هر شنبه با یک وعده غذایی خوشمزه به خود پاداش دهید</t>
     </r>
     <r>
       <rPr>
@@ -15382,7 +15413,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">غذای میان وعده را دور از چشم در خانه اش پنهان کنید</t>
+      <t xml:space="preserve">غذای میان وعده را دور از چشم در خانه خود پنهان کنید</t>
     </r>
     <r>
       <rPr>
@@ -15534,7 +15565,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">برای شکستن پیوندهای درون مولکولی که ساختار سوم و اولیه پروتئین را در کنار هم نگه می‌دارد، در نتیجه قطعات خطی تولید می‌شود که ممکن است بر اساس اندازه مرتب شوند</t>
+      <t xml:space="preserve">برای شکستن پیوندهای درون مولکولی که ساختار سوم و اولیه پروتئین را در کنار هم نگه می دارند، در نتیجه قطعات خطی تولید می شود که ممکن است بر اساس اندازه مرتب شوند</t>
     </r>
     <r>
       <rPr>
@@ -15812,7 +15843,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">آنها به ترتیب فراوانی عبارتند از گلیسین، تیروزین، آرژنین و ایزولوسین</t>
+      <t xml:space="preserve">آنها به ترتیب فراوانی گلیسین، تیروزین، آرژنین و ایزولوسین هستند</t>
     </r>
     <r>
       <rPr>
@@ -15917,7 +15948,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تعداد نسبتاً زیادی میتوکندری و فعالیت کم </t>
+      <t xml:space="preserve">تعداد نسبتا زیادی میتوکندری و فعالیت کم </t>
     </r>
     <r>
       <rPr>
@@ -15959,7 +15990,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تعداد نسبتا کمی میتوکندری و فعالیت </t>
+      <t xml:space="preserve">تعداد نسبتا کمی از میتوکندری و فعالیت </t>
     </r>
     <r>
       <rPr>
@@ -16145,7 +16176,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">در شرایط عادی، کدام یک از انواع سلول های زیر از این سلول بنیادی ایجاد می شود؟</t>
+      <t xml:space="preserve">در شرایط عادی، کدام یک از انواع سلول های زیر از این سلول بنیادی به وجود می آید؟</t>
     </r>
   </si>
   <si>
@@ -16239,14 +16270,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">از طریق یک مکانیسم حمل و نقل فعال</t>
+    <t xml:space="preserve">از طریق یک مکانیسم حمل و نقل فعال</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">از طریق یک مولکول ناقل پروتئین</t>
     </r>
     <r>
       <rPr>
@@ -16258,9 +16292,6 @@
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">از طریق یک مولکول ناقل پروتئین</t>
   </si>
   <si>
     <t xml:space="preserve">با انتشار ساده</t>
@@ -16424,7 +16455,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک مطالعه پذیرش در کالج های استثنایی انتخابی را بررسی کرد</t>
+      <t xml:space="preserve">مطالعه ای پذیرش در کالج های استثنایی انتخابی را بررسی کرد</t>
     </r>
     <r>
       <rPr>
@@ -16666,7 +16697,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">با مشکوک شدن به عفونت هاری، به بیمار سرمی داده می شود که حاوی آنتی بادی های هاری است که در داخل اسب رشد کرده است</t>
+      <t xml:space="preserve">در صورت مشکوک شدن به عفونت هاری، به بیمار سرمی داده می شود که حاوی آنتی بادی های هاری است که در داخل اسب رشد کرده است</t>
     </r>
     <r>
       <rPr>
@@ -16685,7 +16716,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">این نمونه ای از مصونیت است؟</t>
+      <t xml:space="preserve">این نمونه ای از چه نوع مصونیت است؟</t>
     </r>
   </si>
   <si>
@@ -16708,7 +16739,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">تئوری سیستم های جهانی جهان را به عنوان یک واحد به سه زیر دسته تقسیم می کند</t>
+      <t xml:space="preserve">نظریه سیستم های جهانی جهان را به عنوان یک واحد به سه زیرمجموعه تقسیم می کند</t>
     </r>
     <r>
       <rPr>
@@ -16847,7 +16878,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">شامل افزودن یا حذف یک گروه فسفات است</t>
+      <t xml:space="preserve">شامل اضافه کردن یا حذف یک گروه فسفات است</t>
     </r>
     <r>
       <rPr>
@@ -16961,7 +16992,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ذخیره </t>
+      <t xml:space="preserve">ذخایر </t>
     </r>
     <r>
       <rPr>
@@ -17096,16 +17127,26 @@
       </rPr>
       <t xml:space="preserve">ثانیه</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">تجزیه گلیکوژن در ماهیچه های تمرین شده توسط موارد زیر فعال می شود</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تجزیه گلیکوژن در ماهیچه های تمرینی توسط</t>
     </r>
     <r>
       <rPr>
@@ -17143,7 +17184,7 @@
     <t xml:space="preserve">هیچ یک از موارد فوق</t>
   </si>
   <si>
-    <t xml:space="preserve">با توجه به تئوری دلبستگی، کدام یک از کودکان زیر در طول یک مطالعه روان‌شناختی به روان‌شناس مردی که قبلاً برای کودک ناشناخته بود، بیشتر دلبستگی دارد؟</t>
+    <t xml:space="preserve">با توجه به تئوری دلبستگی، کدام یک از کودکان زیر در طول یک مطالعه روان‌شناختی بیشتر به روان‌شناس مردی که قبلاً برای کودک ناشناخته بود، وابستگی پیدا می‌کند؟</t>
   </si>
   <si>
     <t xml:space="preserve">یک نوزاد دختر دو ماهه که در محیطی امن و با ثبات بزرگ شده است</t>
@@ -17159,7 +17200,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک نوزاد پسر هشت ماهه که توسط یک مراقب مجرد بزرگ شده است که اغلب از کودک بی توجهی می کند</t>
+      <t xml:space="preserve">یک نوزاد پسر هشت ماهه که توسط یک مراقب مجرد بزرگ شده است که اغلب به کودک بی توجهی می کند</t>
     </r>
     <r>
       <rPr>
@@ -17180,7 +17221,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک نوزاد دختر سیزده ماهه که توسط دو مراقب بزرگ شده که گهگاه از کودک بی توجهی می کنند</t>
+      <t xml:space="preserve">یک نوزاد دختر سیزده ماهه که توسط دو مراقب بزرگ شده و گهگاه از کودک بی توجهی می کنند</t>
     </r>
     <r>
       <rPr>
@@ -17386,7 +17427,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">یک سیاستمدار محلی یک کارگروه برای کاهش تعصب و جرایم ناشی از نفرت راه اندازی می کند، و این کارگروه توصیه هایی را برای افزایش دسترسی به آموزش، پروژه های بهبود جامعه با حقوق برای افراد مختلف، گروه های احتمالاً متخاصم، و احکام سختگیرانه تر ضد نفرت ارائه می کند. در سطح محلی. این توصیه ها بر اساس موارد زیر است</t>
+      <t xml:space="preserve">یک سیاستمدار محلی یک کارگروه برای کاهش تعصب و جرایم ناشی از نفرت راه اندازی می کند، و این کارگروه توصیه هایی را برای افزایش دسترسی به آموزش، پروژه های بهبود جامعه با پرداخت پول برای افراد از گروه های مختلف، احتمالاً متخاصم، و احکام سختگیرانه تر ضد نفرت ارائه می کند. در سطح محلی این توصیه ها بر اساس موارد زیر است</t>
     </r>
     <r>
       <rPr>
@@ -17577,7 +17618,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">انرژی برای تمام اشکال انقباض عضلانی توسط</t>
+      <t xml:space="preserve">انرژی برای همه اشکال انقباض عضلانی توسط</t>
     </r>
     <r>
       <rPr>
@@ -17880,7 +17921,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">توالی کد کننده ژن ها را می گویند</t>
+      <t xml:space="preserve">توالی کد کننده ژن ها نامیده می شوند</t>
     </r>
     <r>
       <rPr>
@@ -17973,7 +18014,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">گروه جدیدی از افراد پذیرفته شده در یک سازمان نظامی، تشریفاتی را از دانش‌آموزان مسن‌تر تجربه می‌کنند که بعداً آن‌ها را بر روی افراد جدید انجام می‌دهند</t>
+      <t xml:space="preserve">گروه جدیدی از افراد پذیرفته شده در یک سازمان نظامی، تشریفات گیج‌بازی را از دانش‌آموزان مسن‌تر تجربه می‌کنند، که بعداً آن‌ها را بر روی افراد جدید انجام می‌دهند</t>
     </r>
     <r>
       <rPr>
@@ -18244,7 +18285,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" نامیده می شود، با قرار گرفتن کوتاه مدت منفعل در معرض گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
+      <t xml:space="preserve">استفاده از سونا، که گاهی اوقات به عنوان "حمام سونا" شناخته می شود، با قرار گرفتن در معرض کوتاه مدت غیرفعال در برابر گرمای شدید مشخص می شود. این قرار گرفتن در معرض هیپرترمی خفیف - افزایش دمای مرکزی بدن - ایجاد می کند که یک پاسخ تنظیم کننده حرارت شامل مکانیسم های عصبی غدد درون ریز، قلبی عروقی و محافظ سلولی را ایجاد می کند که با هم کار می کنند تا هموستاز را بازیابی کنند و بدن را برای استرس های گرمایی آینده آماده کنند... در دهه های اخیر، حمام کردن سونا ظهور کرده است. به عنوان وسیله ای برای افزایش طول عمر و بهبود سلامت کلی، بر اساس داده های قانع کننده از مطالعات مشاهده ای، مداخله ای و مکانیکی. یافته‌های حاصل از مطالعات شرکت‌کنندگان در مطالعه فاکتور خطر بیماری قلبی ایسکمیک </t>
     </r>
     <r>
       <rPr>
@@ -18292,16 +18333,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کردند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کردند، </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار داشتند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
+      <t xml:space="preserve">27 سال داشتند. درصد کمتری نسبت به مردانی که از سونا استفاده نمی‌کنند، به دلایل قلبی عروقی می‌میرند.[2] علاوه بر این، فوایدی که آنها تجربه کردند وابسته به دوز بود: مردانی که تقریباً دو بار بیشتر از سونا استفاده می کردند، تقریباً چهار تا هفت بار در هفته، تقریباً دو برابر فواید را تجربه کردند - و 50 درصد کمتر در معرض خطر مرگ ناشی از بیماری های قلبی عروقی بودند. علل.[2] علاوه بر این، مصرف کنندگان مکرر سونا 40 درصد کمتر در معرض خطر مرگ ناشی از همه دلایل مرگ زودرس هستند. این یافته‌ها حتی با در نظر گرفتن سن، سطح فعالیت و عوامل سبک زندگی که ممکن است بر سلامت مردان تأثیر بگذارد نیز صادق است. روش وابسته مردانی که دو تا سه بار در هفته از سونا استفاده می‌کنند، در مقایسه با مردانی که تنها یک بار در هفته از سونا استفاده می‌کنند، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۶۶ درصد کمتر در معرض خطر ابتلا به زوال عقل و ۶۵ درصد کمتر در معرض خطر ابتلا به بیماری آلزایمر قرار دارند. استفاده به سایر جنبه های سلامت روان نیز گسترش یافته است. مردان شرکت کننده در مطالعه </t>
     </r>
     <r>
       <rPr>
@@ -18387,7 +18428,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون اصلی را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایعی برای تعریق فراهم می‌کند، بلکه مانند آب موجود در رادیاتور خودرو عمل می‌کند، بدن را خنک می‌کند تا از افزایش سریع دمای مرکزی بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می‌کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
+      <t xml:space="preserve">40 درجه سانتیگراد (104 درجه فارنهایت) افزایش می یابد و سپس تغییراتی در دمای مرکزی بدن رخ می دهد که به آرامی از 37 درجه سانتیگراد (98.6 درجه فارنهایت یا طبیعی) به 38 درجه سانتیگراد (100.4 درجه فارنهایت) افزایش می یابد و سپس به سرعت در حال افزایش به 39 درجه سانتیگراد (102.2 درجه فارنهایت) ... برون ده قلبی، اندازه گیری میزان کاری که قلب در پاسخ به نیاز بدن انجام می دهد. اکسیژن 60 تا 70 درصد افزایش می یابد، در حالی که ضربان قلب (تعداد ضربان در دقیقه) افزایش می یابد و حجم ضربه (مقدار خون پمپاژ شده) بدون تغییر باقی می ماند.[5] در طول این مدت، تقریباً 50 تا 70 درصد از جریان خون بدن از هسته به پوست برای تسهیل تعریق توزیع می شود. افراد به طور متوسط ​​در حین حمام کردن در سونا حدود 0.5 کیلوگرم عرق از دست می دهند.[11] قرار گرفتن در معرض حرارت حاد همچنین باعث افزایش گذرا در حجم کلی پلاسما می شود تا کاهش حجم خون هسته را کاهش دهد. این افزایش حجم پلاسما نه تنها منبع ذخیره مایع برای تعریق را فراهم می کند، بلکه مانند آب رادیاتور خودرو عمل می کند، بدن را خنک می کند تا از افزایش سریع دمای هسته بدن جلوگیری کند و تحمل گرما را افزایش دهد... استفاده مکرر از سونا بدن را سازگار می کند. برای گرم کردن و بهینه سازی پاسخ بدن به قرار گرفتن در معرض آینده، احتمالاً به دلیل یک پدیده بیولوژیکی به نام هورمسیس، یک پاسخ دفاعی جبرانی پس از قرار گرفتن در معرض استرس خفیف که با بزرگی عامل استرس زا نامتناسب است. Hormesis </t>
     </r>
     <r>
       <rPr>
@@ -18826,7 +18867,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">جفت الکترون‌هایی که به شکل‌های </t>
+      <t xml:space="preserve">جفت الکترون‌هایی که به شکل </t>
     </r>
     <r>
       <rPr>
@@ -18864,7 +18905,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">حمل می‌شوند، در مجموع حاوی انرژی آزاد کافی برای فسفریله شدن هستند</t>
+      <t xml:space="preserve">حمل می‌شوند، مجموعاً حاوی انرژی آزاد کافی برای فسفریله شدن هستند</t>
     </r>
     <r>
       <rPr>
@@ -19183,17 +19224,36 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">غلظت گلوکز خون در طول </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">80-90 </t>
+      <t xml:space="preserve">غلظت گلوکز خون در طی </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">90 </t>
     </r>
     <r>
       <rPr>
@@ -19698,7 +19758,7 @@
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">هر یک از موارد زیر جنبه‌هایی از مک‌دونالدیزاسیون جامعه است به جز</t>
+      <t xml:space="preserve">هر یک از موارد زیر جنبه‌های مک‌دونالدیزاسیون جامعه است به جز</t>
     </r>
     <r>
       <rPr>
@@ -20086,10 +20146,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A174" activeCellId="0" sqref="A174"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20113,2946 +20173,3468 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="60.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="73.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>349</v>
+      <c r="F126" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="60.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
